--- a/projects/spiders/电影.xlsx
+++ b/projects/spiders/电影.xlsx
@@ -538,13 +538,29 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>名侦探柯南：万圣节的新娘</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>日本·2022·动作</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>正值万圣节之际，东京涉谷热闹非凡。涉谷HIKARIE大厦里正在举办一场婚礼，身着婚纱的便是——警视厅的佐藤警官。当柯南等宾客都在见证这场婚礼的时候，突如其来的暴徒向佐藤扑去！高木为了保护佐藤而受伤，好在性命无忧。可这时映入佐藤眼里的，是三年前爆炸事件松田阵平殉职时出现的死神的幻影，这一次出现在了高木的身上。与此同时，那场连续爆炸事件的犯人越狱了！这是巧合吗？</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1099</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['满仲劝', '高山南', '山崎和佳奈', '小山力也', '古谷彻', '山口胜平', '高木涉', '汤屋敦子', '岩居由希子', '大谷育江', '绪方贤一', '林原惠美']</t>
         </is>
       </c>
     </row>
